--- a/dummy_data.xlsx
+++ b/dummy_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\oneNeuron\PythonLecture\python_excel_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\oneNeuron\python_lecture\python_excel_test\github_windows_patching_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E614526E-D346-4057-A455-5A7DEBF24D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABA15D3-803D-47EE-A18E-99AD6F865387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>snapshot</t>
   </si>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>domain</t>
+  </si>
+  <si>
+    <t>IP Details</t>
+  </si>
+  <si>
+    <t>Snapshot (Yes/No)</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -978,13 +990,14 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -997,10 +1010,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
@@ -1020,7 +1033,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -1040,7 +1053,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -1060,7 +1073,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1080,7 +1093,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -1100,7 +1113,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>

--- a/dummy_data.xlsx
+++ b/dummy_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\oneNeuron\python_lecture\python_excel_test\github_windows_patching_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABA15D3-803D-47EE-A18E-99AD6F865387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A257CBA-9ECC-410D-9001-9A836AF6488F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Day1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>snapshot</t>
   </si>
@@ -141,6 +141,18 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>DataCenter</t>
+  </si>
+  <si>
+    <t>Azure</t>
+  </si>
+  <si>
+    <t>MHS</t>
+  </si>
+  <si>
+    <t>NTT</t>
   </si>
 </sst>
 </file>
@@ -987,22 +999,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1021,8 +1035,11 @@
       <c r="F1" t="s">
         <v>33</v>
       </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1041,8 +1058,11 @@
       <c r="F2" t="s">
         <v>34</v>
       </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1062,7 +1082,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1082,7 +1102,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1101,8 +1121,11 @@
       <c r="F5" t="s">
         <v>34</v>
       </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1121,8 +1144,11 @@
       <c r="F6" t="s">
         <v>35</v>
       </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>33</v>
       </c>
@@ -1140,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408C6C15-847C-4CA2-99BC-754DA75B1E47}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,9 +1178,10 @@
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1173,8 +1200,11 @@
       <c r="F1" t="s">
         <v>33</v>
       </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
@@ -1194,7 +1224,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7</v>
       </c>
@@ -1214,7 +1244,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
@@ -1233,8 +1263,11 @@
       <c r="F4" t="s">
         <v>35</v>
       </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9</v>
       </c>
@@ -1254,7 +1287,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -1268,7 +1301,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>22</v>
       </c>
